--- a/SchedulingData/dynamic14/pso/scheduling2_17.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>224.48</v>
+        <v>251.02</v>
       </c>
       <c r="D2" t="n">
-        <v>285.34</v>
+        <v>317.36</v>
       </c>
       <c r="E2" t="n">
-        <v>12.096</v>
+        <v>10.404</v>
       </c>
     </row>
     <row r="3">
@@ -485,264 +485,264 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>234.3</v>
       </c>
       <c r="D3" t="n">
-        <v>293.62</v>
+        <v>285.08</v>
       </c>
       <c r="E3" t="n">
-        <v>13.728</v>
+        <v>14.632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>293.62</v>
+        <v>244.76</v>
       </c>
       <c r="D4" t="n">
-        <v>347.82</v>
+        <v>311.14</v>
       </c>
       <c r="E4" t="n">
-        <v>10.448</v>
+        <v>13.516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>347.82</v>
+        <v>250.48</v>
       </c>
       <c r="D5" t="n">
-        <v>404.92</v>
+        <v>312.88</v>
       </c>
       <c r="E5" t="n">
-        <v>7.368</v>
+        <v>9.332000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>226.66</v>
+        <v>285.08</v>
       </c>
       <c r="D6" t="n">
-        <v>283.88</v>
+        <v>339.18</v>
       </c>
       <c r="E6" t="n">
-        <v>12.272</v>
+        <v>11.352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>205.44</v>
+        <v>232.98</v>
       </c>
       <c r="D7" t="n">
-        <v>256.48</v>
+        <v>298.48</v>
       </c>
       <c r="E7" t="n">
-        <v>14.872</v>
+        <v>8.492000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>211.7</v>
+        <v>317.36</v>
       </c>
       <c r="D8" t="n">
-        <v>280.92</v>
+        <v>365.38</v>
       </c>
       <c r="E8" t="n">
-        <v>10.588</v>
+        <v>7.232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>224.36</v>
+        <v>240.48</v>
       </c>
       <c r="D9" t="n">
-        <v>280.7</v>
+        <v>284</v>
       </c>
       <c r="E9" t="n">
-        <v>12.14</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>280.92</v>
+        <v>298.48</v>
       </c>
       <c r="D10" t="n">
-        <v>319.58</v>
+        <v>348.42</v>
       </c>
       <c r="E10" t="n">
-        <v>7.852</v>
+        <v>4.628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>404.92</v>
+        <v>348.42</v>
       </c>
       <c r="D11" t="n">
-        <v>459.4</v>
+        <v>404.46</v>
       </c>
       <c r="E11" t="n">
-        <v>4.56</v>
+        <v>1.144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>459.4</v>
+        <v>404.46</v>
       </c>
       <c r="D12" t="n">
-        <v>515.38</v>
+        <v>493.67</v>
       </c>
       <c r="E12" t="n">
-        <v>2.052</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>256.48</v>
+        <v>311.14</v>
       </c>
       <c r="D13" t="n">
-        <v>302.16</v>
+        <v>363.74</v>
       </c>
       <c r="E13" t="n">
-        <v>11.924</v>
+        <v>9.875999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>283.88</v>
+        <v>339.18</v>
       </c>
       <c r="D14" t="n">
-        <v>331.08</v>
+        <v>385.78</v>
       </c>
       <c r="E14" t="n">
-        <v>8.192</v>
+        <v>7.332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>280.7</v>
+        <v>284</v>
       </c>
       <c r="D15" t="n">
-        <v>334.6</v>
+        <v>357</v>
       </c>
       <c r="E15" t="n">
-        <v>7.88</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>331.08</v>
+        <v>357</v>
       </c>
       <c r="D16" t="n">
-        <v>388.58</v>
+        <v>407.2</v>
       </c>
       <c r="E16" t="n">
-        <v>4.552</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="17">
@@ -751,136 +751,136 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>302.16</v>
+        <v>312.88</v>
       </c>
       <c r="D17" t="n">
-        <v>367.1</v>
+        <v>361.12</v>
       </c>
       <c r="E17" t="n">
-        <v>8.06</v>
+        <v>6.628</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>367.1</v>
+        <v>363.74</v>
       </c>
       <c r="D18" t="n">
-        <v>401.66</v>
+        <v>422.64</v>
       </c>
       <c r="E18" t="n">
-        <v>5.244</v>
+        <v>5.616</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>401.66</v>
+        <v>365.38</v>
       </c>
       <c r="D19" t="n">
-        <v>447.46</v>
+        <v>433.22</v>
       </c>
       <c r="E19" t="n">
-        <v>2.284</v>
+        <v>4.528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>334.6</v>
+        <v>493.67</v>
       </c>
       <c r="D20" t="n">
-        <v>382.84</v>
+        <v>531.63</v>
       </c>
       <c r="E20" t="n">
-        <v>5.176</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>382.84</v>
+        <v>385.78</v>
       </c>
       <c r="D21" t="n">
-        <v>440.44</v>
+        <v>463.64</v>
       </c>
       <c r="E21" t="n">
-        <v>2.536</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>319.58</v>
+        <v>433.22</v>
       </c>
       <c r="D22" t="n">
-        <v>374.98</v>
+        <v>468.62</v>
       </c>
       <c r="E22" t="n">
-        <v>3.932</v>
+        <v>2.128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>374.98</v>
+        <v>422.64</v>
       </c>
       <c r="D23" t="n">
-        <v>449.64</v>
+        <v>458.72</v>
       </c>
       <c r="E23" t="n">
-        <v>1.556</v>
+        <v>2.648</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>449.64</v>
+        <v>468.62</v>
       </c>
       <c r="D24" t="n">
-        <v>547.9299999999999</v>
+        <v>565.66</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -899,21 +899,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>447.46</v>
+        <v>565.66</v>
       </c>
       <c r="D25" t="n">
-        <v>514.79</v>
+        <v>639</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="26">
@@ -922,41 +922,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>514.79</v>
+        <v>361.12</v>
       </c>
       <c r="D26" t="n">
-        <v>589.05</v>
+        <v>426.62</v>
       </c>
       <c r="E26" t="n">
-        <v>26.724</v>
+        <v>2.708</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>547.9299999999999</v>
+        <v>458.72</v>
       </c>
       <c r="D27" t="n">
-        <v>616.27</v>
+        <v>508.68</v>
       </c>
       <c r="E27" t="n">
-        <v>27.296</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>515.38</v>
+        <v>508.68</v>
       </c>
       <c r="D28" t="n">
-        <v>588.1799999999999</v>
+        <v>614.54</v>
       </c>
       <c r="E28" t="n">
         <v>30</v>
@@ -975,21 +975,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>588.1799999999999</v>
+        <v>426.62</v>
       </c>
       <c r="D29" t="n">
-        <v>649.84</v>
+        <v>478.1</v>
       </c>
       <c r="E29" t="n">
-        <v>26.024</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30">
@@ -998,74 +998,74 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>589.05</v>
+        <v>478.1</v>
       </c>
       <c r="D30" t="n">
-        <v>645.91</v>
+        <v>554.6</v>
       </c>
       <c r="E30" t="n">
-        <v>24.128</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>645.91</v>
+        <v>463.64</v>
       </c>
       <c r="D31" t="n">
-        <v>728.65</v>
+        <v>543.76</v>
       </c>
       <c r="E31" t="n">
-        <v>21.424</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>388.58</v>
+        <v>543.76</v>
       </c>
       <c r="D32" t="n">
-        <v>458.44</v>
+        <v>633.91</v>
       </c>
       <c r="E32" t="n">
-        <v>2.176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>440.44</v>
+        <v>633.91</v>
       </c>
       <c r="D33" t="n">
-        <v>526.97</v>
+        <v>700.17</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>27.024</v>
       </c>
     </row>
     <row r="34">
@@ -1074,117 +1074,117 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>526.97</v>
+        <v>614.54</v>
       </c>
       <c r="D34" t="n">
-        <v>598.75</v>
+        <v>679.7</v>
       </c>
       <c r="E34" t="n">
-        <v>26.472</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>458.44</v>
+        <v>554.6</v>
       </c>
       <c r="D35" t="n">
-        <v>565.49</v>
+        <v>636.8</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>565.49</v>
+        <v>639</v>
       </c>
       <c r="D36" t="n">
-        <v>664.79</v>
+        <v>672.8</v>
       </c>
       <c r="E36" t="n">
-        <v>25.2</v>
+        <v>25.056</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>285.34</v>
+        <v>636.8</v>
       </c>
       <c r="D37" t="n">
-        <v>348.54</v>
+        <v>679.4</v>
       </c>
       <c r="E37" t="n">
-        <v>9.375999999999999</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>348.54</v>
+        <v>531.63</v>
       </c>
       <c r="D38" t="n">
-        <v>419.54</v>
+        <v>596.83</v>
       </c>
       <c r="E38" t="n">
-        <v>4.396</v>
+        <v>23.024</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>419.54</v>
+        <v>407.2</v>
       </c>
       <c r="D39" t="n">
-        <v>489.44</v>
+        <v>483.24</v>
       </c>
       <c r="E39" t="n">
-        <v>1.016</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>489.44</v>
+        <v>483.24</v>
       </c>
       <c r="D40" t="n">
-        <v>559.41</v>
+        <v>574.61</v>
       </c>
       <c r="E40" t="n">
         <v>30</v>
@@ -1203,77 +1203,39 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>649.84</v>
+        <v>679.7</v>
       </c>
       <c r="D41" t="n">
-        <v>717.24</v>
+        <v>714.1799999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>22.864</v>
+        <v>24.816</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>598.75</v>
+        <v>574.61</v>
       </c>
       <c r="D42" t="n">
-        <v>649.73</v>
+        <v>640.11</v>
       </c>
       <c r="E42" t="n">
-        <v>23.504</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>6</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pond19</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>664.79</v>
-      </c>
-      <c r="D43" t="n">
-        <v>715.83</v>
-      </c>
-      <c r="E43" t="n">
-        <v>21.716</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>4</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond25</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>559.41</v>
-      </c>
-      <c r="D44" t="n">
-        <v>624.91</v>
-      </c>
-      <c r="E44" t="n">
         <v>27.58</v>
       </c>
     </row>
